--- a/Project Outputs for abl_board/1-4-mini-30mm-fan-BOM-updated.xlsx
+++ b/Project Outputs for abl_board/1-4-mini-30mm-fan-BOM-updated.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Git\z-probe\Project Outputs for abl_board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\z-probe\Project Outputs for abl_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>Designator</t>
   </si>
@@ -179,21 +179,9 @@
     <t>R1</t>
   </si>
   <si>
-    <t>Resistor SMD chip 330 Ohm 0.1W 5% 0603</t>
-  </si>
-  <si>
-    <t>330R</t>
-  </si>
-  <si>
     <t>Vishay Dale</t>
   </si>
   <si>
-    <t>CRCW0603330RJNEA</t>
-  </si>
-  <si>
-    <t>541-330GCT-ND</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -288,13 +276,46 @@
   </si>
   <si>
     <t>311-130GRDKR-ND</t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t>Resistor SMD chip 470 Ohm 0.1W 5% 0603</t>
+  </si>
+  <si>
+    <t>541-470GCT-ND</t>
+  </si>
+  <si>
+    <t>CRCW0603470RJNEA</t>
+  </si>
+  <si>
+    <t>Elecrow Component ID</t>
+  </si>
+  <si>
+    <t>15331</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>23906</t>
+  </si>
+  <si>
+    <t>23939</t>
+  </si>
+  <si>
+    <t>23517</t>
+  </si>
+  <si>
+    <t>23535</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +336,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -359,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,12 +394,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -682,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,9 +791,10 @@
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,16 +819,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -751,60 +848,67 @@
       <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="I3" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -829,8 +933,9 @@
       <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -838,7 +943,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>33</v>
@@ -855,8 +960,9 @@
       <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -881,13 +987,14 @@
       <c r="H7" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -907,8 +1014,9 @@
       <c r="H8" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -933,178 +1041,195 @@
       <c r="H9" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="9">
+        <v>26547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="I14" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1113,8 +1238,9 @@
         <v>12</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I16" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1143,8 +1269,6 @@
     <hyperlink ref="E9" tooltip="Manufacturer" display="SFH 3100 F"/>
     <hyperlink ref="H9" tooltip="Supplier" display="475-1445-ND"/>
     <hyperlink ref="D10" tooltip="Component" display="Vishay Dale"/>
-    <hyperlink ref="E10" tooltip="Manufacturer" display="CRCW0603330RJNEA"/>
-    <hyperlink ref="H10" tooltip="Supplier" display="541-330GCT-ND"/>
     <hyperlink ref="D11" r:id="rId1" tooltip="Component"/>
     <hyperlink ref="E11" r:id="rId2" tooltip="Manufacturer"/>
     <hyperlink ref="D12" tooltip="Component" display="Yageo"/>
